--- a/biology/Zoologie/Fringillidae/Fringillidae.xlsx
+++ b/biology/Zoologie/Fringillidae/Fringillidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fringillidae (ou Fringillidés en français) sont une famille de passereaux constituée de plus de 52 genres et de près de 220 espèces.
 </t>
@@ -511,12 +523,49 @@
           <t>Systémique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la classification de Sibley-Ahlquist, les fringillidés constituent un groupe beaucoup plus large englobant en plus des 3 sous-familles citées ci-dessous, de nombreuses autres familles (Cardinalidés, Thraupidés, Embérizidés, Parulidés et Ictéridés).
 L'étude phylogénique d'ampleur de Zuccon et al. (2012) vient bouleverser les connaissances sur cette famille et entraîne de profonds changements dans les positions systématiques. Cette étude permet d'identifier trois clades, la sous-famille fringillinés, constituée du genre holarctique Fringilla ; la sous-famille Euphoniinae (en), composée des genres néotropicaux Euphonia, Chlorophonia ; et finalement la large sous-famille des Carduelinae, composée du reste de la famille. L'étude invalide l'existence de la sous-famille des Drepanidinae (parfois considérée comme une famille à part entière) et la considère comme appartenant à la sous-famille des carduélinés et à la tribu des drepanidini, insérant directement les trois espèces de drépanis analysées entre les genres chinois Eophona et eurasiatique Carpodacus.
-Liste des genres
-Classement alphabétique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fringillidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fringillidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systémique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Classement alphabétique
 Acanthis (3 espèces)
 Agraphospiza (1 espèce)
 Akialoa † (2 espèces)
@@ -569,8 +618,43 @@
 Telespiza (2 espèces)
 Vestiaria (1 espèce)
 Viridonia † (1 espèce)
-Liste des espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fringillidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fringillidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systémique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Espèces par ordre phylogénique
 Fringilla coelebs – Pinson des arbres
 Fringilla teydea – Pinson bleu
@@ -792,7 +876,43 @@
 Chlorophonia occipitalis – Organiste à calotte bleue
 Chlorophonia callophrys – Organiste à sourcils jaunes
 Parmi celles-ci, 15 espèces sont éteintes.
-Phylogénie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fringillidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fringillidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systémique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
